--- a/StS_Lifecoach.xlsx
+++ b/StS_Lifecoach.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAY\マイドライブ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296C3E8D-12A0-4509-887C-F0B8B234E8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406D8B05-30B8-43A8-BAA6-EC308E960F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18105" yWindow="555" windowWidth="10365" windowHeight="14790" tabRatio="762" activeTab="1" xr2:uid="{ACFB7073-87C5-4366-82D9-10979F373B6C}"/>
+    <workbookView xWindow="24140" yWindow="4340" windowWidth="10390" windowHeight="16310" tabRatio="762" activeTab="1" xr2:uid="{ACFB7073-87C5-4366-82D9-10979F373B6C}"/>
   </bookViews>
   <sheets>
     <sheet name="START" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="139">
   <si>
     <t>Obtain 100 Gold</t>
     <phoneticPr fontId="1"/>
@@ -766,6 +766,10 @@
   </si>
   <si>
     <t>Nunchaku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18.03.2022 88-1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1216,15 +1220,15 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="33.75" customWidth="1"/>
-    <col min="2" max="3" width="5.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="6.125" style="12" customWidth="1"/>
-    <col min="5" max="7" width="5.375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="5.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="6.08203125" style="12" customWidth="1"/>
+    <col min="5" max="7" width="5.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>134</v>
       </c>
@@ -1232,7 +1236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>132</v>
       </c>
@@ -1247,7 +1251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -1256,7 +1260,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1265,7 +1269,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -1274,7 +1278,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -1283,7 +1287,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -1292,7 +1296,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
@@ -1301,7 +1305,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>115</v>
       </c>
@@ -1316,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>60</v>
       </c>
@@ -1325,7 +1329,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>111</v>
       </c>
@@ -1334,14 +1338,14 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="D13" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>130</v>
       </c>
@@ -1350,7 +1354,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>133</v>
       </c>
@@ -1365,7 +1369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -1380,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>116</v>
       </c>
@@ -1389,7 +1393,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>98</v>
       </c>
@@ -1398,7 +1402,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>122</v>
       </c>
@@ -1407,7 +1411,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1416,7 +1420,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>113</v>
       </c>
@@ -1425,7 +1429,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>126</v>
       </c>
@@ -1448,28 +1452,28 @@
   <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="20" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.08203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="11" customWidth="1"/>
-    <col min="3" max="4" width="4.125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="7.375" style="10" customWidth="1"/>
-    <col min="6" max="10" width="4.125" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="8.625" style="1"/>
+    <col min="3" max="4" width="4.08203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="10" customWidth="1"/>
+    <col min="6" max="10" width="4.08203125" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C1" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -1487,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
@@ -1496,7 +1500,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="11" t="s">
         <v>85</v>
       </c>
@@ -1505,7 +1509,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="11" t="s">
         <v>86</v>
       </c>
@@ -1514,7 +1518,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="11" t="s">
         <v>66</v>
       </c>
@@ -1523,7 +1527,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
@@ -1532,7 +1536,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="11" t="s">
         <v>41</v>
       </c>
@@ -1541,7 +1545,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="11" t="s">
         <v>73</v>
       </c>
@@ -1553,7 +1557,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="11" t="s">
         <v>30</v>
       </c>
@@ -1562,7 +1566,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="11" t="s">
         <v>27</v>
       </c>
@@ -1571,7 +1575,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="11" t="s">
         <v>37</v>
       </c>
@@ -1580,7 +1584,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="11" t="s">
         <v>19</v>
       </c>
@@ -1592,7 +1596,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -1604,13 +1608,19 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>110</v>
@@ -1619,7 +1629,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="11" t="s">
         <v>87</v>
       </c>
@@ -1628,7 +1638,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="11" t="s">
         <v>9</v>
       </c>
@@ -1637,7 +1647,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="11" t="s">
         <v>26</v>
       </c>
@@ -1646,7 +1656,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="11" t="s">
         <v>3</v>
       </c>
@@ -1655,7 +1665,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="11" t="s">
         <v>28</v>
       </c>
@@ -1670,7 +1680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="11" t="s">
         <v>42</v>
       </c>
@@ -1679,7 +1689,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="11" t="s">
         <v>43</v>
       </c>
@@ -1688,7 +1698,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="11" t="s">
         <v>21</v>
       </c>
@@ -1697,7 +1707,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="11" t="s">
         <v>88</v>
       </c>
@@ -1706,7 +1716,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="11" t="s">
         <v>15</v>
       </c>
@@ -1715,7 +1725,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="11" t="s">
         <v>35</v>
       </c>
@@ -1736,7 +1746,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="11" t="s">
         <v>89</v>
       </c>
@@ -1745,7 +1755,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="11" t="s">
         <v>36</v>
       </c>
@@ -1754,7 +1764,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="11" t="s">
         <v>17</v>
       </c>
@@ -1769,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="11" t="s">
         <v>12</v>
       </c>
@@ -1784,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="11" t="s">
         <v>64</v>
       </c>
@@ -1793,7 +1803,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="11" t="s">
         <v>20</v>
       </c>
@@ -1802,7 +1812,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="11" t="s">
         <v>90</v>
       </c>
@@ -1814,7 +1824,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="11" t="s">
         <v>59</v>
       </c>
@@ -1829,7 +1839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="11" t="s">
         <v>65</v>
       </c>
@@ -1838,25 +1848,37 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C36" s="7">
+        <v>1</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
+      <c r="E37" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="11" t="s">
         <v>70</v>
       </c>
@@ -1865,7 +1887,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="11" t="s">
         <v>92</v>
       </c>
@@ -1874,7 +1896,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="11" t="s">
         <v>10</v>
       </c>
@@ -1889,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="11" t="s">
         <v>57</v>
       </c>
@@ -1898,7 +1920,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="11" t="s">
         <v>55</v>
       </c>
@@ -1907,16 +1929,22 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C43" s="7">
+        <v>1</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0</v>
+      </c>
+      <c r="E43" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="11" t="s">
         <v>54</v>
       </c>
@@ -1925,7 +1953,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="11" t="s">
         <v>53</v>
       </c>
@@ -1934,7 +1962,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="11" t="s">
         <v>22</v>
       </c>
@@ -1943,16 +1971,22 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C47" s="7">
+        <v>1</v>
+      </c>
+      <c r="D47" s="7">
+        <v>0</v>
+      </c>
+      <c r="E47" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="11" t="s">
         <v>52</v>
       </c>
@@ -1967,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="11" t="s">
         <v>44</v>
       </c>
@@ -1985,7 +2019,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="11" t="s">
         <v>23</v>
       </c>
@@ -2000,12 +2034,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" s="7">
         <v>0</v>
@@ -2015,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="3">
         <v>2</v>
       </c>
@@ -2030,7 +2064,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="11" t="s">
         <v>4</v>
       </c>
@@ -2045,7 +2079,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="11" t="s">
         <v>18</v>
       </c>
@@ -2054,7 +2088,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="11" t="s">
         <v>40</v>
       </c>
@@ -2063,7 +2097,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="11" t="s">
         <v>46</v>
       </c>
@@ -2078,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="11" t="s">
         <v>93</v>
       </c>
@@ -2087,7 +2121,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="11" t="s">
         <v>16</v>
       </c>
@@ -2102,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="11" t="s">
         <v>29</v>
       </c>
@@ -2111,7 +2145,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="11" t="s">
         <v>56</v>
       </c>
@@ -2126,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="11" t="s">
         <v>47</v>
       </c>
@@ -2135,7 +2169,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="11" t="s">
         <v>24</v>
       </c>
@@ -2147,7 +2181,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="11" t="s">
         <v>94</v>
       </c>
@@ -2159,7 +2193,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="11" t="s">
         <v>63</v>
       </c>
@@ -2168,7 +2202,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="11" t="s">
         <v>58</v>
       </c>
@@ -2183,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="11" t="s">
         <v>95</v>
       </c>
@@ -2192,7 +2226,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="11" t="s">
         <v>38</v>
       </c>
@@ -2201,13 +2235,13 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E68" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="3">
         <v>3</v>
       </c>
@@ -2219,7 +2253,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="11" t="s">
         <v>96</v>
       </c>
@@ -2231,7 +2265,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="11" t="s">
         <v>67</v>
       </c>
@@ -2240,7 +2274,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="11" t="s">
         <v>71</v>
       </c>
@@ -2255,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3">
         <v>4</v>
       </c>
@@ -2273,7 +2307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="3" t="s">
         <v>13</v>
       </c>
@@ -2302,15 +2336,15 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="23.25" customWidth="1"/>
     <col min="2" max="3" width="4.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.08203125" style="4" customWidth="1"/>
     <col min="5" max="7" width="4.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -2325,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -2340,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -2355,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -2370,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -2385,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -2400,7 +2434,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -2415,7 +2449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -2430,7 +2464,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -2445,7 +2479,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2460,7 +2494,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -2475,7 +2509,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -2490,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -2505,7 +2539,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -2520,7 +2554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -2535,7 +2569,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -2550,7 +2584,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -2565,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -2580,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2612,29 +2646,29 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="25.875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" style="9" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11" t="s">
         <v>136</v>
       </c>
@@ -2656,16 +2690,16 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="4" width="4.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.08203125" style="4" customWidth="1"/>
     <col min="6" max="7" width="4.25" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5">
         <v>0</v>
       </c>
@@ -2683,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>82</v>
       </c>
@@ -2698,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>104</v>
       </c>
@@ -2713,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>83</v>
       </c>
@@ -2728,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>79</v>
       </c>
@@ -2743,7 +2777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
         <v>106</v>
       </c>
@@ -2758,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>107</v>
       </c>
@@ -2773,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>131</v>
       </c>
@@ -2788,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>77</v>
       </c>
@@ -2803,13 +2837,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -2827,13 +2861,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5">
         <v>2</v>
       </c>
@@ -2851,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
         <v>108</v>
       </c>
@@ -2866,7 +2900,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
         <v>78</v>
       </c>
@@ -2881,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
         <v>109</v>
       </c>
@@ -2896,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
@@ -2914,19 +2948,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E18" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E19" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E20" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>

--- a/StS_Lifecoach.xlsx
+++ b/StS_Lifecoach.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAY\マイドライブ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAY\マイドライブ\StS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406D8B05-30B8-43A8-BAA6-EC308E960F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7211CF-BEBE-4AEB-B79C-911C822BC86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24140" yWindow="4340" windowWidth="10390" windowHeight="16310" tabRatio="762" activeTab="1" xr2:uid="{ACFB7073-87C5-4366-82D9-10979F373B6C}"/>
+    <workbookView xWindow="26200" yWindow="4500" windowWidth="10390" windowHeight="16310" tabRatio="762" activeTab="1" xr2:uid="{ACFB7073-87C5-4366-82D9-10979F373B6C}"/>
   </bookViews>
   <sheets>
     <sheet name="START" sheetId="1" r:id="rId1"/>
@@ -1452,7 +1452,7 @@
   <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="20" x14ac:dyDescent="0.55000000000000004"/>
@@ -1470,7 +1470,7 @@
         <v>138</v>
       </c>
       <c r="C1" s="4">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1843,9 +1843,15 @@
       <c r="B35" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.55000000000000004">
@@ -2185,9 +2191,15 @@
       <c r="B63" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E63" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C63" s="7">
+        <v>1</v>
+      </c>
+      <c r="D63" s="7">
+        <v>1</v>
+      </c>
+      <c r="E63" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>117</v>
@@ -2257,9 +2269,15 @@
       <c r="B70" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E70" s="10" t="str">
+      <c r="C70" s="7">
+        <v>1</v>
+      </c>
+      <c r="D70" s="7">
+        <v>0</v>
+      </c>
+      <c r="E70" s="10">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>128</v>
@@ -2333,7 +2351,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2349,7 +2367,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4">
         <v>0</v>
@@ -2363,15 +2381,9 @@
       <c r="A2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="4">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="D2" s="6" t="str">
         <f t="shared" ref="D2:D19" si="0">IF(B2="","",C2/B2)</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2393,90 +2405,54 @@
       <c r="A4" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+      <c r="D6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="4">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="4">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+      <c r="D8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="4">
-        <v>3</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+      <c r="D9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2484,149 +2460,95 @@
         <v>31</v>
       </c>
       <c r="B10" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="4">
-        <v>2</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+      <c r="D11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="4">
-        <v>3</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2</v>
-      </c>
-      <c r="D13" s="6">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+      <c r="D13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="4">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="4">
-        <v>2</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+      <c r="D15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="4">
-        <v>4</v>
-      </c>
-      <c r="C16" s="4">
-        <v>3</v>
-      </c>
-      <c r="D16" s="6">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
+      <c r="D16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="4">
-        <v>3</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="4">
-        <v>4</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="4">
-        <v>4</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/StS_Lifecoach.xlsx
+++ b/StS_Lifecoach.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAY\マイドライブ\StS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7211CF-BEBE-4AEB-B79C-911C822BC86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C916DAF2-01F4-43AE-97B6-B5D54CFF9B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26200" yWindow="4500" windowWidth="10390" windowHeight="16310" tabRatio="762" activeTab="1" xr2:uid="{ACFB7073-87C5-4366-82D9-10979F373B6C}"/>
+    <workbookView xWindow="20205" yWindow="660" windowWidth="7740" windowHeight="14790" tabRatio="762" activeTab="1" xr2:uid="{ACFB7073-87C5-4366-82D9-10979F373B6C}"/>
   </bookViews>
   <sheets>
     <sheet name="START" sheetId="1" r:id="rId1"/>
@@ -753,10 +753,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>18.03.2022 88</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Clockwork Souvenir</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -769,7 +765,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>18.03.2022 88-1</t>
+    <t>18.03.2022 88-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1214,233 +1214,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50250AB4-99B9-477F-80F0-1B257B25309D}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A2:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="33.75" customWidth="1"/>
-    <col min="2" max="3" width="5.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="6.08203125" style="12" customWidth="1"/>
-    <col min="5" max="7" width="5.33203125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="5.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="6.125" style="12" customWidth="1"/>
+    <col min="5" max="7" width="5.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <f t="shared" ref="D2:D21" si="0">IF(B2="","",C2/B2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="D12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <f t="shared" ref="D3:D22" si="0">IF(B3="","",C3/B3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1"/>
-      <c r="D13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="B15" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-      <c r="D16" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>116</v>
+      </c>
+      <c r="D16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>98</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="D18" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="D19" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="D20" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D21" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:C20">
-    <sortCondition ref="A3:A20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:C19">
+    <sortCondition ref="A2:A19"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1452,28 +1462,28 @@
   <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="20" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.08203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="11" customWidth="1"/>
-    <col min="3" max="4" width="4.08203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="10" customWidth="1"/>
-    <col min="6" max="10" width="4.08203125" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="8.58203125" style="1"/>
+    <col min="3" max="4" width="4.125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="10" customWidth="1"/>
+    <col min="6" max="10" width="4.125" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -1491,16 +1501,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="10" t="str">
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
         <f t="shared" ref="E3:E64" si="0">IF(C3="","",D3/C3)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B4" s="11" t="s">
         <v>85</v>
       </c>
@@ -1509,16 +1525,22 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B5" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
         <v>66</v>
       </c>
@@ -1527,7 +1549,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
@@ -1536,16 +1558,22 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B9" s="11" t="s">
         <v>73</v>
       </c>
@@ -1557,7 +1585,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B10" s="11" t="s">
         <v>30</v>
       </c>
@@ -1566,16 +1594,22 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B12" s="11" t="s">
         <v>37</v>
       </c>
@@ -1584,7 +1618,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>19</v>
       </c>
@@ -1596,19 +1630,25 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>1</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B15" s="11" t="s">
         <v>39</v>
       </c>
@@ -1629,7 +1669,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B16" s="11" t="s">
         <v>87</v>
       </c>
@@ -1638,7 +1678,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
         <v>9</v>
       </c>
@@ -1647,7 +1687,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="11" t="s">
         <v>26</v>
       </c>
@@ -1656,7 +1696,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="11" t="s">
         <v>3</v>
       </c>
@@ -1665,7 +1705,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="11" t="s">
         <v>28</v>
       </c>
@@ -1680,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="11" t="s">
         <v>42</v>
       </c>
@@ -1689,7 +1729,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="11" t="s">
         <v>43</v>
       </c>
@@ -1698,7 +1738,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="11" t="s">
         <v>21</v>
       </c>
@@ -1707,7 +1747,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="11" t="s">
         <v>88</v>
       </c>
@@ -1716,7 +1756,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="11" t="s">
         <v>15</v>
       </c>
@@ -1725,7 +1765,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="11" t="s">
         <v>35</v>
       </c>
@@ -1746,7 +1786,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="11" t="s">
         <v>89</v>
       </c>
@@ -1755,7 +1795,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="11" t="s">
         <v>36</v>
       </c>
@@ -1764,7 +1804,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="11" t="s">
         <v>17</v>
       </c>
@@ -1779,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="11" t="s">
         <v>12</v>
       </c>
@@ -1794,16 +1834,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="11" t="s">
         <v>20</v>
       </c>
@@ -1812,7 +1858,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B33" s="11" t="s">
         <v>90</v>
       </c>
@@ -1824,7 +1870,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B34" s="11" t="s">
         <v>59</v>
       </c>
@@ -1839,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B35" s="11" t="s">
         <v>65</v>
       </c>
@@ -1854,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B36" s="11" t="s">
         <v>91</v>
       </c>
@@ -1869,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B37" s="11" t="s">
         <v>6</v>
       </c>
@@ -1884,7 +1930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B38" s="11" t="s">
         <v>70</v>
       </c>
@@ -1893,7 +1939,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B39" s="11" t="s">
         <v>92</v>
       </c>
@@ -1902,12 +1948,12 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B40" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" s="7">
         <v>0</v>
@@ -1917,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B41" s="11" t="s">
         <v>57</v>
       </c>
@@ -1926,7 +1972,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B42" s="11" t="s">
         <v>55</v>
       </c>
@@ -1935,7 +1981,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B43" s="11" t="s">
         <v>62</v>
       </c>
@@ -1950,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B44" s="11" t="s">
         <v>54</v>
       </c>
@@ -1959,16 +2005,22 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B45" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7">
+        <v>1</v>
+      </c>
+      <c r="E45" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B46" s="11" t="s">
         <v>22</v>
       </c>
@@ -1977,22 +2029,22 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B47" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B48" s="11" t="s">
         <v>52</v>
       </c>
@@ -2007,7 +2059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B49" s="11" t="s">
         <v>44</v>
       </c>
@@ -2025,7 +2077,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B50" s="11" t="s">
         <v>23</v>
       </c>
@@ -2040,12 +2092,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B51" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" s="7">
         <v>0</v>
@@ -2055,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <v>2</v>
       </c>
@@ -2070,7 +2122,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B53" s="11" t="s">
         <v>4</v>
       </c>
@@ -2085,7 +2137,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B54" s="11" t="s">
         <v>18</v>
       </c>
@@ -2094,7 +2146,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B55" s="11" t="s">
         <v>40</v>
       </c>
@@ -2103,7 +2155,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B56" s="11" t="s">
         <v>46</v>
       </c>
@@ -2118,7 +2170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B57" s="11" t="s">
         <v>93</v>
       </c>
@@ -2127,7 +2179,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B58" s="11" t="s">
         <v>16</v>
       </c>
@@ -2142,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B59" s="11" t="s">
         <v>29</v>
       </c>
@@ -2151,7 +2203,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B60" s="11" t="s">
         <v>56</v>
       </c>
@@ -2166,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B61" s="11" t="s">
         <v>47</v>
       </c>
@@ -2175,7 +2227,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B62" s="11" t="s">
         <v>24</v>
       </c>
@@ -2187,7 +2239,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B63" s="11" t="s">
         <v>94</v>
       </c>
@@ -2205,7 +2257,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B64" s="11" t="s">
         <v>63</v>
       </c>
@@ -2214,7 +2266,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B65" s="11" t="s">
         <v>58</v>
       </c>
@@ -2229,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B66" s="11" t="s">
         <v>95</v>
       </c>
@@ -2238,7 +2290,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B67" s="11" t="s">
         <v>38</v>
       </c>
@@ -2247,13 +2299,13 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="E68" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
         <v>3</v>
       </c>
@@ -2265,7 +2317,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B70" s="11" t="s">
         <v>96</v>
       </c>
@@ -2283,7 +2335,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B71" s="11" t="s">
         <v>67</v>
       </c>
@@ -2292,7 +2344,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B72" s="11" t="s">
         <v>71</v>
       </c>
@@ -2307,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
         <v>4</v>
       </c>
@@ -2325,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
         <v>13</v>
       </c>
@@ -2354,15 +2406,15 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23.25" customWidth="1"/>
     <col min="2" max="3" width="4.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.08203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="4" customWidth="1"/>
     <col min="5" max="7" width="4.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -2377,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -2386,7 +2438,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -2401,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -2410,7 +2462,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -2419,7 +2471,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -2428,7 +2480,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -2437,7 +2489,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -2446,7 +2498,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -2455,7 +2507,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2470,7 +2522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -2479,7 +2531,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -2488,7 +2540,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -2497,7 +2549,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -2506,7 +2558,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -2515,7 +2567,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -2524,7 +2576,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -2533,7 +2585,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -2542,7 +2594,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2568,31 +2620,31 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="22.375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="25.875" style="9" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="11" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="11" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="11" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2612,16 +2664,16 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.375" style="5" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="4" width="4.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.08203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="4" customWidth="1"/>
     <col min="6" max="7" width="4.25" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="5">
         <v>0</v>
       </c>
@@ -2639,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>82</v>
       </c>
@@ -2654,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>104</v>
       </c>
@@ -2669,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>83</v>
       </c>
@@ -2684,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>79</v>
       </c>
@@ -2699,7 +2751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>106</v>
       </c>
@@ -2714,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>107</v>
       </c>
@@ -2729,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>131</v>
       </c>
@@ -2744,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>77</v>
       </c>
@@ -2759,13 +2811,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -2783,13 +2835,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>2</v>
       </c>
@@ -2807,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>108</v>
       </c>
@@ -2822,7 +2874,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>78</v>
       </c>
@@ -2837,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>109</v>
       </c>
@@ -2852,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
@@ -2870,19 +2922,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E18" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E19" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E20" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>

--- a/StS_Lifecoach.xlsx
+++ b/StS_Lifecoach.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAY\マイドライブ\StS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C916DAF2-01F4-43AE-97B6-B5D54CFF9B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC51EF14-4E67-4760-AA85-7B368D496718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20205" yWindow="660" windowWidth="7740" windowHeight="14790" tabRatio="762" activeTab="1" xr2:uid="{ACFB7073-87C5-4366-82D9-10979F373B6C}"/>
+    <workbookView xWindow="26200" yWindow="4500" windowWidth="10390" windowHeight="16310" tabRatio="762" firstSheet="1" activeTab="1" xr2:uid="{ACFB7073-87C5-4366-82D9-10979F373B6C}"/>
   </bookViews>
   <sheets>
     <sheet name="START" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="139">
   <si>
     <t>Obtain 100 Gold</t>
     <phoneticPr fontId="1"/>
@@ -769,7 +769,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>s</t>
+    <t>D</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1220,15 +1220,15 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="33.75" customWidth="1"/>
-    <col min="2" max="3" width="5.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="6.125" style="12" customWidth="1"/>
-    <col min="5" max="7" width="5.375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="5.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="6.08203125" style="12" customWidth="1"/>
+    <col min="5" max="7" width="5.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>132</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>111</v>
       </c>
@@ -1342,14 +1342,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="D12" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>130</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>133</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>116</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>98</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>122</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>113</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>126</v>
       </c>
@@ -1465,17 +1465,17 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="20" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.08203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="11" customWidth="1"/>
-    <col min="3" max="4" width="4.125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="7.375" style="10" customWidth="1"/>
-    <col min="6" max="10" width="4.125" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="8.625" style="1"/>
+    <col min="3" max="4" width="4.08203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="10" customWidth="1"/>
+    <col min="6" max="10" width="4.08203125" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>137</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -1491,17 +1491,17 @@
         <v>72</v>
       </c>
       <c r="C2" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="10">
         <f>IF(C2="","",D2/C2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="11" t="s">
         <v>85</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="11" t="s">
         <v>86</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="11" t="s">
         <v>66</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="11" t="s">
         <v>41</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="11" t="s">
         <v>73</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="11" t="s">
         <v>30</v>
       </c>
@@ -1594,22 +1594,22 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="11" t="s">
         <v>37</v>
       </c>
@@ -1618,19 +1618,25 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -1638,7 +1644,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
         <v>0</v>
@@ -1648,12 +1654,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="7">
         <v>0</v>
@@ -1669,7 +1675,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="11" t="s">
         <v>87</v>
       </c>
@@ -1678,16 +1684,22 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="11" t="s">
         <v>26</v>
       </c>
@@ -1696,16 +1708,22 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="11" t="s">
         <v>28</v>
       </c>
@@ -1720,16 +1738,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="11" t="s">
         <v>43</v>
       </c>
@@ -1738,7 +1762,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="11" t="s">
         <v>21</v>
       </c>
@@ -1747,7 +1771,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="11" t="s">
         <v>88</v>
       </c>
@@ -1756,7 +1780,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="11" t="s">
         <v>15</v>
       </c>
@@ -1765,7 +1789,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="11" t="s">
         <v>35</v>
       </c>
@@ -1786,7 +1810,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="11" t="s">
         <v>89</v>
       </c>
@@ -1795,7 +1819,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="11" t="s">
         <v>36</v>
       </c>
@@ -1804,12 +1828,12 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7">
         <v>0</v>
@@ -1819,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="11" t="s">
         <v>12</v>
       </c>
@@ -1834,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="11" t="s">
         <v>64</v>
       </c>
@@ -1849,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="11" t="s">
         <v>20</v>
       </c>
@@ -1858,7 +1882,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="11" t="s">
         <v>90</v>
       </c>
@@ -1870,22 +1894,22 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C34" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
         <v>1</v>
       </c>
       <c r="E34" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="11" t="s">
         <v>65</v>
       </c>
@@ -1900,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="11" t="s">
         <v>91</v>
       </c>
@@ -1915,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="11" t="s">
         <v>6</v>
       </c>
@@ -1930,7 +1954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="11" t="s">
         <v>70</v>
       </c>
@@ -1939,7 +1963,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="11" t="s">
         <v>92</v>
       </c>
@@ -1948,7 +1972,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="11" t="s">
         <v>10</v>
       </c>
@@ -1963,16 +1987,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C41" s="7">
+        <v>1</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0</v>
+      </c>
+      <c r="E41" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="11" t="s">
         <v>55</v>
       </c>
@@ -1981,7 +2011,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="11" t="s">
         <v>62</v>
       </c>
@@ -1996,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="11" t="s">
         <v>54</v>
       </c>
@@ -2005,7 +2035,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="11" t="s">
         <v>53</v>
       </c>
@@ -2020,16 +2050,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C46" s="7">
+        <v>1</v>
+      </c>
+      <c r="D46" s="7">
+        <v>1</v>
+      </c>
+      <c r="E46" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="11" t="s">
         <v>7</v>
       </c>
@@ -2044,7 +2080,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="11" t="s">
         <v>52</v>
       </c>
@@ -2059,12 +2095,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C49" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" s="7">
         <v>0</v>
@@ -2077,7 +2113,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="11" t="s">
         <v>23</v>
       </c>
@@ -2092,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="11" t="s">
         <v>51</v>
       </c>
@@ -2107,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="3">
         <v>2</v>
       </c>
@@ -2122,7 +2158,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="11" t="s">
         <v>4</v>
       </c>
@@ -2137,7 +2173,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="11" t="s">
         <v>18</v>
       </c>
@@ -2146,7 +2182,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="11" t="s">
         <v>40</v>
       </c>
@@ -2155,7 +2191,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="11" t="s">
         <v>46</v>
       </c>
@@ -2170,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="11" t="s">
         <v>93</v>
       </c>
@@ -2179,12 +2215,12 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" s="7">
         <v>0</v>
@@ -2194,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="11" t="s">
         <v>29</v>
       </c>
@@ -2203,7 +2239,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="11" t="s">
         <v>56</v>
       </c>
@@ -2218,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="11" t="s">
         <v>47</v>
       </c>
@@ -2227,19 +2263,25 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E62" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C62" s="7">
+        <v>1</v>
+      </c>
+      <c r="D62" s="7">
+        <v>0</v>
+      </c>
+      <c r="E62" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="11" t="s">
         <v>94</v>
       </c>
@@ -2257,7 +2299,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="11" t="s">
         <v>63</v>
       </c>
@@ -2266,7 +2308,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="11" t="s">
         <v>58</v>
       </c>
@@ -2281,7 +2323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="11" t="s">
         <v>95</v>
       </c>
@@ -2290,7 +2332,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="11" t="s">
         <v>38</v>
       </c>
@@ -2299,13 +2341,13 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E68" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="3">
         <v>3</v>
       </c>
@@ -2317,7 +2359,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="11" t="s">
         <v>96</v>
       </c>
@@ -2335,7 +2377,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="11" t="s">
         <v>67</v>
       </c>
@@ -2344,7 +2386,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="11" t="s">
         <v>71</v>
       </c>
@@ -2359,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3">
         <v>4</v>
       </c>
@@ -2377,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="3" t="s">
         <v>13</v>
       </c>
@@ -2406,15 +2448,15 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="23.25" customWidth="1"/>
     <col min="2" max="3" width="4.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.08203125" style="4" customWidth="1"/>
     <col min="5" max="7" width="4.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -2429,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -2438,7 +2480,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -2453,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -2462,7 +2504,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -2471,7 +2513,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -2480,7 +2522,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -2489,7 +2531,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -2498,7 +2540,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -2507,7 +2549,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2522,7 +2564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -2531,7 +2573,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -2540,7 +2582,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -2549,7 +2591,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -2558,7 +2600,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -2567,7 +2609,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -2576,7 +2618,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -2585,7 +2627,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -2594,7 +2636,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2617,32 +2659,37 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="25.875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" style="9" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11" t="s">
         <v>135</v>
       </c>
@@ -2664,16 +2711,16 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="4" width="4.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.08203125" style="4" customWidth="1"/>
     <col min="6" max="7" width="4.25" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5">
         <v>0</v>
       </c>
@@ -2691,7 +2738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>82</v>
       </c>
@@ -2706,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>104</v>
       </c>
@@ -2721,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>83</v>
       </c>
@@ -2736,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>79</v>
       </c>
@@ -2751,7 +2798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
         <v>106</v>
       </c>
@@ -2766,7 +2813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>107</v>
       </c>
@@ -2781,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>131</v>
       </c>
@@ -2796,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>77</v>
       </c>
@@ -2811,13 +2858,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E10" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -2835,13 +2882,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E12" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5">
         <v>2</v>
       </c>
@@ -2859,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
         <v>108</v>
       </c>
@@ -2874,7 +2921,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
         <v>78</v>
       </c>
@@ -2889,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
         <v>109</v>
       </c>
@@ -2904,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
@@ -2922,19 +2969,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E18" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E19" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E20" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>

--- a/StS_Lifecoach.xlsx
+++ b/StS_Lifecoach.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAY\マイドライブ\StS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC51EF14-4E67-4760-AA85-7B368D496718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9483324B-B006-4781-ADF4-D82323D765CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26200" yWindow="4500" windowWidth="10390" windowHeight="16310" tabRatio="762" firstSheet="1" activeTab="1" xr2:uid="{ACFB7073-87C5-4366-82D9-10979F373B6C}"/>
+    <workbookView xWindow="18870" yWindow="660" windowWidth="9825" windowHeight="14790" tabRatio="817" firstSheet="1" activeTab="1" xr2:uid="{ACFB7073-87C5-4366-82D9-10979F373B6C}"/>
   </bookViews>
   <sheets>
     <sheet name="START" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="150">
   <si>
     <t>Obtain 100 Gold</t>
     <phoneticPr fontId="1"/>
@@ -765,11 +765,75 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>18.03.2022 88-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D</t>
+    <t>18.03.2022 87</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Lose all Gold </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Choose a rare CL Card</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dark Shackles</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Blind</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Preserved Insect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toolbox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Forethought</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Good Instincts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flash of Steel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hand of Greed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Purity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enlightenment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Panache</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -879,9 +943,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -899,6 +960,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1214,72 +1278,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50250AB4-99B9-477F-80F0-1B257B25309D}">
-  <dimension ref="A2:G21"/>
+  <dimension ref="A2:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="33.75" customWidth="1"/>
-    <col min="2" max="3" width="5.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="6.08203125" style="12" customWidth="1"/>
-    <col min="5" max="7" width="5.33203125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="5.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="6.125" style="11" customWidth="1"/>
+    <col min="5" max="7" width="5.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8">
-        <f t="shared" ref="D2:D21" si="0">IF(B2="","",C2/B2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7">
+        <f t="shared" ref="D2:D22" si="0">IF(B2="","",C2/B2)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D3" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -1289,45 +1353,45 @@
       <c r="C7" s="4">
         <v>0</v>
       </c>
-      <c r="D7" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
       </c>
-      <c r="D9" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>111</v>
       </c>
@@ -1337,120 +1401,135 @@
       <c r="C11" s="4">
         <v>0</v>
       </c>
-      <c r="D11" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="D12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="4">
-        <v>2</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="4">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1" t="s">
+      <c r="D17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="1" t="s">
+      <c r="D21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D21" s="8" t="str">
+      <c r="D22" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:C19">
-    <sortCondition ref="A2:A19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:C20">
+    <sortCondition ref="A2:A20"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1462,971 +1541,1043 @@
   <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="20" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.08203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.25" style="11" customWidth="1"/>
-    <col min="3" max="4" width="4.08203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="10" customWidth="1"/>
-    <col min="6" max="10" width="4.08203125" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="8.58203125" style="1"/>
+    <col min="1" max="1" width="5.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="10" customWidth="1"/>
+    <col min="3" max="4" width="4.125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="9" customWidth="1"/>
+    <col min="6" max="10" width="4.125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <f>IF(C2="","",D2/C2)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <f t="shared" ref="E3:E64" si="0">IF(C3="","",D3/C3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="7">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10">
-        <f>IF(C2="","",D2/C2)</f>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10">
-        <f t="shared" ref="E3:E64" si="0">IF(C3="","",D3/C3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="6">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="7">
+      <c r="G15" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6">
+        <v>3</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="6">
         <v>2</v>
       </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B24" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B27" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B28" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="6">
+        <v>3</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="6">
+        <v>4</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B31" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B33" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="9" t="str">
+        <f>IF(C33="","",D33/C33)</f>
+        <v/>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B34" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="6">
         <v>2</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="7">
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B35" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0</v>
+      </c>
+      <c r="E35" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B36" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+      <c r="E36" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B37" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="6">
         <v>2</v>
       </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="11" t="s">
+      <c r="D37" s="6">
+        <v>2</v>
+      </c>
+      <c r="E37" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B38" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B39" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B40" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="6">
         <v>3</v>
       </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1</v>
-      </c>
-      <c r="E26" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="7">
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
+      <c r="E40" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B41" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="6">
         <v>2</v>
       </c>
-      <c r="D29" s="7">
-        <v>0</v>
-      </c>
-      <c r="E29" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="7">
+      <c r="D41" s="6">
+        <v>1</v>
+      </c>
+      <c r="E41" s="9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B42" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="6">
+        <v>1</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0</v>
+      </c>
+      <c r="E42" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B43" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="6">
+        <v>1</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0</v>
+      </c>
+      <c r="E43" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B44" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B45" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="6">
+        <v>1</v>
+      </c>
+      <c r="D45" s="6">
+        <v>1</v>
+      </c>
+      <c r="E45" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B46" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="6">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6">
+        <v>1</v>
+      </c>
+      <c r="E46" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B47" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="6">
         <v>2</v>
       </c>
-      <c r="D30" s="7">
-        <v>0</v>
-      </c>
-      <c r="E30" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="7">
-        <v>1</v>
-      </c>
-      <c r="D31" s="7">
-        <v>0</v>
-      </c>
-      <c r="E31" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E33" s="10" t="str">
-        <f>IF(C33="","",D33/C33)</f>
-        <v/>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="7">
-        <v>2</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1</v>
-      </c>
-      <c r="E34" s="10">
+      <c r="D47" s="6">
+        <v>1</v>
+      </c>
+      <c r="E47" s="9">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="7">
-        <v>1</v>
-      </c>
-      <c r="D35" s="7">
-        <v>0</v>
-      </c>
-      <c r="E35" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="7">
-        <v>1</v>
-      </c>
-      <c r="D36" s="7">
-        <v>0</v>
-      </c>
-      <c r="E36" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="11" t="s">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B48" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="6">
+        <v>3</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0</v>
+      </c>
+      <c r="E48" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B49" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="6">
         <v>6</v>
       </c>
-      <c r="C37" s="7">
-        <v>1</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1</v>
-      </c>
-      <c r="E37" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="7">
-        <v>2</v>
-      </c>
-      <c r="D40" s="7">
-        <v>0</v>
-      </c>
-      <c r="E40" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="7">
-        <v>1</v>
-      </c>
-      <c r="D41" s="7">
-        <v>0</v>
-      </c>
-      <c r="E41" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="7">
-        <v>1</v>
-      </c>
-      <c r="D43" s="7">
-        <v>0</v>
-      </c>
-      <c r="E43" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="7">
-        <v>1</v>
-      </c>
-      <c r="D45" s="7">
-        <v>1</v>
-      </c>
-      <c r="E45" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="7">
-        <v>1</v>
-      </c>
-      <c r="D46" s="7">
-        <v>1</v>
-      </c>
-      <c r="E46" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="7">
-        <v>2</v>
-      </c>
-      <c r="D47" s="7">
-        <v>1</v>
-      </c>
-      <c r="E47" s="10">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="7">
-        <v>1</v>
-      </c>
-      <c r="D48" s="7">
-        <v>0</v>
-      </c>
-      <c r="E48" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="7">
-        <v>3</v>
-      </c>
-      <c r="D49" s="7">
-        <v>0</v>
-      </c>
-      <c r="E49" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="7" t="s">
+      <c r="D49" s="6">
+        <v>1</v>
+      </c>
+      <c r="E49" s="9">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G49" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="11" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B50" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C50" s="7">
-        <v>1</v>
-      </c>
-      <c r="D50" s="7">
-        <v>0</v>
-      </c>
-      <c r="E50" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="11" t="s">
+      <c r="C50" s="6">
+        <v>4</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0</v>
+      </c>
+      <c r="E50" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B51" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="7">
-        <v>4</v>
-      </c>
-      <c r="D51" s="7">
-        <v>0</v>
-      </c>
-      <c r="E51" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C51" s="6">
+        <v>5</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0</v>
+      </c>
+      <c r="E51" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <v>2</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H52" s="7" t="s">
+      <c r="E52" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H52" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="11" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B53" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <v>2</v>
       </c>
-      <c r="D53" s="7">
-        <v>1</v>
-      </c>
-      <c r="E53" s="10">
+      <c r="D53" s="6">
+        <v>1</v>
+      </c>
+      <c r="E53" s="9">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="11" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B54" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="11" t="s">
+      <c r="C54" s="6">
+        <v>1</v>
+      </c>
+      <c r="D54" s="6">
+        <v>1</v>
+      </c>
+      <c r="E54" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B55" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="11" t="s">
+      <c r="C55" s="6">
+        <v>1</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0</v>
+      </c>
+      <c r="E55" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B56" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="7">
-        <v>1</v>
-      </c>
-      <c r="D56" s="7">
-        <v>1</v>
-      </c>
-      <c r="E56" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="11" t="s">
+      <c r="C56" s="6">
+        <v>1</v>
+      </c>
+      <c r="D56" s="6">
+        <v>1</v>
+      </c>
+      <c r="E56" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B57" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E57" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="11" t="s">
+      <c r="E57" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="6">
         <v>2</v>
       </c>
-      <c r="D58" s="7">
-        <v>0</v>
-      </c>
-      <c r="E58" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="11" t="s">
+      <c r="D58" s="6">
+        <v>0</v>
+      </c>
+      <c r="E58" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B59" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E59" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="11" t="s">
+      <c r="E59" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B60" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="7">
-        <v>1</v>
-      </c>
-      <c r="D60" s="7">
-        <v>0</v>
-      </c>
-      <c r="E60" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="11" t="s">
+      <c r="C60" s="6">
+        <v>1</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0</v>
+      </c>
+      <c r="E60" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B61" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E61" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="11" t="s">
+      <c r="C61" s="6">
+        <v>1</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0</v>
+      </c>
+      <c r="E61" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B62" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C62" s="7">
-        <v>1</v>
-      </c>
-      <c r="D62" s="7">
-        <v>0</v>
-      </c>
-      <c r="E62" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H62" s="7" t="s">
+      <c r="C62" s="6">
+        <v>2</v>
+      </c>
+      <c r="D62" s="6">
+        <v>0</v>
+      </c>
+      <c r="E62" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B63" s="11" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B63" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C63" s="7">
-        <v>1</v>
-      </c>
-      <c r="D63" s="7">
-        <v>1</v>
-      </c>
-      <c r="E63" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F63" s="7" t="s">
+      <c r="C63" s="6">
+        <v>1</v>
+      </c>
+      <c r="D63" s="6">
+        <v>1</v>
+      </c>
+      <c r="E63" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F63" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="11" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B64" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E64" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="11" t="s">
+      <c r="E64" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B65" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C65" s="7">
-        <v>1</v>
-      </c>
-      <c r="D65" s="7">
-        <v>0</v>
-      </c>
-      <c r="E65" s="10">
+      <c r="C65" s="6">
+        <v>1</v>
+      </c>
+      <c r="D65" s="6">
+        <v>0</v>
+      </c>
+      <c r="E65" s="9">
         <f t="shared" ref="E65:E74" si="1">IF(C65="","",D65/C65)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="11" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B66" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E66" s="10" t="str">
+      <c r="C66" s="6">
+        <v>1</v>
+      </c>
+      <c r="D66" s="6">
+        <v>1</v>
+      </c>
+      <c r="E66" s="9">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B67" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E67" s="10" t="str">
+      <c r="C67" s="6">
+        <v>1</v>
+      </c>
+      <c r="D67" s="6">
+        <v>1</v>
+      </c>
+      <c r="E67" s="9">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E68" s="10" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E68" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
         <v>3</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E69" s="10" t="str">
+      <c r="E69" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B70" s="11" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B70" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C70" s="7">
-        <v>1</v>
-      </c>
-      <c r="D70" s="7">
-        <v>0</v>
-      </c>
-      <c r="E70" s="10">
+      <c r="C70" s="6">
+        <v>2</v>
+      </c>
+      <c r="D70" s="6">
+        <v>0</v>
+      </c>
+      <c r="E70" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H70" s="7" t="s">
+      <c r="H70" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" s="11" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B71" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E71" s="10" t="str">
+      <c r="C71" s="6">
+        <v>1</v>
+      </c>
+      <c r="D71" s="6">
+        <v>1</v>
+      </c>
+      <c r="E71" s="9">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B72" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="7">
-        <v>1</v>
-      </c>
-      <c r="D72" s="7">
-        <v>0</v>
-      </c>
-      <c r="E72" s="10">
+      <c r="C72" s="6">
+        <v>2</v>
+      </c>
+      <c r="D72" s="6">
+        <v>0</v>
+      </c>
+      <c r="E72" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
         <v>4</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="7">
-        <v>1</v>
-      </c>
-      <c r="D73" s="7">
-        <v>0</v>
-      </c>
-      <c r="E73" s="10">
+      <c r="C73" s="6">
+        <v>2</v>
+      </c>
+      <c r="D73" s="6">
+        <v>0</v>
+      </c>
+      <c r="E73" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E74" s="10" t="str">
+      <c r="E74" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2448,16 +2599,16 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.25" customWidth="1"/>
+    <col min="1" max="1" width="23.25" style="10" customWidth="1"/>
     <col min="2" max="3" width="4.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.08203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="12" customWidth="1"/>
     <col min="5" max="7" width="4.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="4">
@@ -2466,22 +2617,22 @@
       <c r="C1" s="4">
         <v>0</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="9">
         <f>IF(B1="","",C1/B1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="6" t="str">
+      <c r="D2" s="9" t="str">
         <f t="shared" ref="D2:D19" si="0">IF(B2="","",C2/B2)</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B3" s="4">
@@ -2490,157 +2641,157 @@
       <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+      <c r="D3" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+      <c r="D4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+      <c r="D5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+      <c r="D6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+      <c r="D7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+      <c r="D8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+      <c r="D9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+      <c r="D11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
+      <c r="D12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+      <c r="D13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+      <c r="D14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+      <c r="D15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
+      <c r="D16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
+      <c r="D17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
+      <c r="D18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="6" t="str">
+      <c r="D19" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2656,42 +2807,47 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F08A996-8D68-4EDA-9C48-105312CBDA67}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="22.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="25.875" style="8" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="11" t="s">
-        <v>135</v>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2705,147 +2861,147 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512D0298-A43A-4F73-8C32-98A42ED6A43F}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="1" max="1" width="4.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="19.625" style="10" customWidth="1"/>
     <col min="3" max="4" width="4.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.08203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="12" customWidth="1"/>
     <col min="6" max="7" width="4.25" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="5">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="9">
+        <f t="shared" ref="E1:E29" si="0">IF(C1="","",D1/C1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B2" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B3" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="4">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4">
-        <v>0</v>
-      </c>
-      <c r="E1" s="6">
-        <f>IF(C1="","",D1/C1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" t="s">
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <f>IF(C3="","",D3/C3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" ref="E5" si="1">IF(C5="","",D5/C5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <f t="shared" ref="E2:E20" si="0">IF(C2="","",D2/C2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" t="s">
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" t="s">
-        <v>77</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -2853,47 +3009,47 @@
       <c r="D9" s="4">
         <v>0</v>
       </c>
-      <c r="E9" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>105</v>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -2901,88 +3057,181 @@
       <c r="D13" s="4">
         <v>0</v>
       </c>
-      <c r="E13" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" t="s">
-        <v>108</v>
+      <c r="E13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="C14" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" t="s">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="C15" s="4">
         <v>2</v>
       </c>
       <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B16" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="5">
+        <v>1</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E20" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="5">
+        <v>2</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B22" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B23" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B24" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B25" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="4">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5" t="s">
+      <c r="E25" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B26" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E18" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E19" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E20" s="6" t="str">
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E27" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E28" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E29" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>

--- a/StS_Lifecoach.xlsx
+++ b/StS_Lifecoach.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAY\マイドライブ\StS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9483324B-B006-4781-ADF4-D82323D765CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659A3EAE-C2B9-4459-966B-9F23214C0788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18870" yWindow="660" windowWidth="9825" windowHeight="14790" tabRatio="817" firstSheet="1" activeTab="1" xr2:uid="{ACFB7073-87C5-4366-82D9-10979F373B6C}"/>
+    <workbookView xWindow="24620" yWindow="4450" windowWidth="10390" windowHeight="16310" tabRatio="817" firstSheet="1" activeTab="1" xr2:uid="{ACFB7073-87C5-4366-82D9-10979F373B6C}"/>
   </bookViews>
   <sheets>
     <sheet name="START" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="164">
   <si>
     <t>Obtain 100 Gold</t>
     <phoneticPr fontId="1"/>
@@ -834,6 +834,62 @@
   </si>
   <si>
     <t>Panache</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Finess</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Orrery</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Madness</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Metamorphosis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Anchor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Panacea</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lee's Waffle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Violence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mayhem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Master of Strategy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Thinking Ahead</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Panic Button</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1284,15 +1340,15 @@
       <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="33.75" customWidth="1"/>
-    <col min="2" max="3" width="5.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="6.125" style="11" customWidth="1"/>
-    <col min="5" max="7" width="5.375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="5.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="6.08203125" style="11" customWidth="1"/>
+    <col min="5" max="7" width="5.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>132</v>
       </c>
@@ -1307,7 +1363,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -1316,7 +1372,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1325,7 +1381,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -1334,7 +1390,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -1343,7 +1399,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -1358,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
@@ -1367,7 +1423,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
@@ -1382,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
@@ -1391,7 +1447,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>111</v>
       </c>
@@ -1406,14 +1462,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="D12" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>130</v>
       </c>
@@ -1422,7 +1478,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>138</v>
       </c>
@@ -1437,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>133</v>
       </c>
@@ -1452,7 +1508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -1467,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>116</v>
       </c>
@@ -1476,7 +1532,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>98</v>
       </c>
@@ -1491,7 +1547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>122</v>
       </c>
@@ -1500,7 +1556,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1509,7 +1565,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>113</v>
       </c>
@@ -1518,7 +1574,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>126</v>
       </c>
@@ -1541,28 +1597,28 @@
   <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="20" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.08203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="10" customWidth="1"/>
-    <col min="3" max="4" width="4.125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="7.375" style="9" customWidth="1"/>
-    <col min="6" max="10" width="4.125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.625" style="1"/>
+    <col min="3" max="4" width="4.08203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="9" customWidth="1"/>
+    <col min="6" max="10" width="4.08203125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C1" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -1570,17 +1626,17 @@
         <v>72</v>
       </c>
       <c r="C2" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
       </c>
       <c r="E2" s="9">
         <f>IF(C2="","",D2/C2)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="10" t="s">
         <v>34</v>
       </c>
@@ -1595,7 +1651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="10" t="s">
         <v>85</v>
       </c>
@@ -1604,36 +1660,42 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C5" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" s="6">
         <v>0</v>
@@ -1643,12 +1705,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" s="6">
         <v>0</v>
@@ -1658,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="10" t="s">
         <v>73</v>
       </c>
@@ -1670,7 +1732,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="10" t="s">
         <v>30</v>
       </c>
@@ -1679,7 +1741,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="10" t="s">
         <v>27</v>
       </c>
@@ -1694,16 +1756,22 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
@@ -1721,7 +1789,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -1729,22 +1797,22 @@
         <v>8</v>
       </c>
       <c r="C14" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" s="6">
         <v>0</v>
@@ -1760,27 +1828,27 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C16" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="6">
         <v>0</v>
@@ -1790,22 +1858,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="6">
         <v>1</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="10" t="s">
         <v>3</v>
       </c>
@@ -1820,61 +1888,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="6">
         <v>1</v>
       </c>
       <c r="E20" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="10" t="s">
         <v>88</v>
       </c>
@@ -1889,16 +1963,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="10" t="s">
         <v>35</v>
       </c>
@@ -1919,7 +1999,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="10" t="s">
         <v>89</v>
       </c>
@@ -1928,21 +2008,27 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C28" s="6">
+        <v>2</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" s="6">
         <v>0</v>
@@ -1952,12 +2038,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" s="6">
         <v>0</v>
@@ -1967,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="10" t="s">
         <v>64</v>
       </c>
@@ -1982,7 +2068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="10" t="s">
         <v>20</v>
       </c>
@@ -1991,34 +2077,40 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="9" t="str">
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9">
         <f>IF(C33="","",D33/C33)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C34" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" s="6">
         <v>1</v>
       </c>
       <c r="E34" s="9">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="10" t="s">
         <v>65</v>
       </c>
@@ -2033,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="10" t="s">
         <v>91</v>
       </c>
@@ -2048,7 +2140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="10" t="s">
         <v>6</v>
       </c>
@@ -2063,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="10" t="s">
         <v>70</v>
       </c>
@@ -2072,16 +2164,22 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C39" s="6">
+        <v>3</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0</v>
+      </c>
+      <c r="E39" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="10" t="s">
         <v>10</v>
       </c>
@@ -2096,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="10" t="s">
         <v>57</v>
       </c>
@@ -2111,7 +2209,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="10" t="s">
         <v>55</v>
       </c>
@@ -2126,7 +2224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="10" t="s">
         <v>62</v>
       </c>
@@ -2141,61 +2239,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C44" s="6">
+        <v>2</v>
+      </c>
+      <c r="D44" s="6">
+        <v>2</v>
+      </c>
+      <c r="E44" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C45" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D45" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E45" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C46" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" s="6">
         <v>1</v>
       </c>
       <c r="E46" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" s="6">
         <v>1</v>
       </c>
       <c r="E47" s="9">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="10" t="s">
         <v>52</v>
       </c>
@@ -2210,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="10" t="s">
         <v>44</v>
       </c>
@@ -2228,12 +2332,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C50" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D50" s="6">
         <v>0</v>
@@ -2243,12 +2347,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D51" s="6">
         <v>0</v>
@@ -2258,52 +2362,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="3">
         <v>2</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="C52" s="6">
+        <v>2</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0</v>
+      </c>
+      <c r="E52" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C53" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" s="6">
         <v>1</v>
       </c>
       <c r="E53" s="9">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C54" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" s="6">
         <v>1</v>
       </c>
       <c r="E54" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="10" t="s">
         <v>40</v>
       </c>
@@ -2318,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="10" t="s">
         <v>46</v>
       </c>
@@ -2333,7 +2443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="10" t="s">
         <v>93</v>
       </c>
@@ -2342,12 +2452,12 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" s="6">
         <v>0</v>
@@ -2357,31 +2467,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E59" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C59" s="6">
+        <v>1</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0</v>
+      </c>
+      <c r="E59" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C60" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="10" t="s">
         <v>47</v>
       </c>
@@ -2396,12 +2512,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C62" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" s="6">
         <v>0</v>
@@ -2414,7 +2530,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="10" t="s">
         <v>94</v>
       </c>
@@ -2432,16 +2548,22 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E64" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C64" s="6">
+        <v>1</v>
+      </c>
+      <c r="D64" s="6">
+        <v>0</v>
+      </c>
+      <c r="E64" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="10" t="s">
         <v>58</v>
       </c>
@@ -2456,7 +2578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="10" t="s">
         <v>95</v>
       </c>
@@ -2471,7 +2593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="10" t="s">
         <v>38</v>
       </c>
@@ -2486,13 +2608,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E68" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="3">
         <v>3</v>
       </c>
@@ -2504,7 +2626,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="10" t="s">
         <v>96</v>
       </c>
@@ -2522,7 +2644,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="10" t="s">
         <v>67</v>
       </c>
@@ -2537,12 +2659,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="10" t="s">
         <v>71</v>
       </c>
       <c r="C72" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" s="6">
         <v>0</v>
@@ -2552,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3">
         <v>4</v>
       </c>
@@ -2560,7 +2682,7 @@
         <v>5</v>
       </c>
       <c r="C73" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" s="6">
         <v>0</v>
@@ -2570,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="3" t="s">
         <v>13</v>
       </c>
@@ -2596,18 +2718,18 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="23.25" style="10" customWidth="1"/>
     <col min="2" max="3" width="4.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="7.08203125" style="12" customWidth="1"/>
     <col min="5" max="7" width="4.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>33</v>
       </c>
@@ -2622,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>74</v>
       </c>
@@ -2631,7 +2753,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
         <v>68</v>
       </c>
@@ -2646,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
         <v>118</v>
       </c>
@@ -2655,34 +2777,52 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
         <v>103</v>
       </c>
@@ -2691,7 +2831,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
         <v>101</v>
       </c>
@@ -2700,7 +2840,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
         <v>31</v>
       </c>
@@ -2715,7 +2855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
         <v>48</v>
       </c>
@@ -2724,7 +2864,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
         <v>76</v>
       </c>
@@ -2733,7 +2873,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
         <v>119</v>
       </c>
@@ -2742,7 +2882,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
         <v>49</v>
       </c>
@@ -2751,7 +2891,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
         <v>69</v>
       </c>
@@ -2760,7 +2900,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
         <v>75</v>
       </c>
@@ -2769,7 +2909,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
         <v>100</v>
       </c>
@@ -2778,7 +2918,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
         <v>50</v>
       </c>
@@ -2787,7 +2927,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
         <v>32</v>
       </c>
@@ -2807,52 +2947,72 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F08A996-8D68-4EDA-9C48-105312CBDA67}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="25.875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" style="8" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" s="10" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" s="10" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="10" t="s">
         <v>142</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C9">
-    <sortCondition ref="A4:A9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C11">
+    <sortCondition ref="A4:A11"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2861,22 +3021,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512D0298-A43A-4F73-8C32-98A42ED6A43F}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="19.625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="19.58203125" style="10" customWidth="1"/>
     <col min="3" max="4" width="4.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="7.08203125" style="12" customWidth="1"/>
     <col min="6" max="7" width="4.25" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5">
         <v>0</v>
       </c>
@@ -2884,354 +3044,509 @@
         <v>140</v>
       </c>
       <c r="C1" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" s="4">
         <v>0</v>
       </c>
       <c r="E1" s="9">
-        <f t="shared" ref="E1:E29" si="0">IF(C1="","",D1/C1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <f t="shared" ref="E1:E37" si="0">IF(C1="","",D1/C1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="10" t="s">
         <v>139</v>
       </c>
       <c r="C2" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="10" t="s">
         <v>81</v>
       </c>
       <c r="C3" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="9">
         <f>IF(C3="","",D3/C3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="10" t="s">
         <v>148</v>
       </c>
       <c r="C5" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="9">
-        <f t="shared" ref="E5" si="1">IF(C5="","",D5/C5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <f t="shared" ref="E5:E6" si="1">IF(C5="","",D5/C5)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="4">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="4">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="4">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="4">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="10" t="s">
+      <c r="C12" s="4">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="10" t="s">
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="10" t="s">
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="10" t="s">
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="4">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4">
-        <v>2</v>
-      </c>
-      <c r="E15" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B16" s="10" t="s">
+      <c r="C18" s="4">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4">
+        <v>3</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="10" t="s">
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="E18" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="5">
-        <v>1</v>
-      </c>
-      <c r="B19" s="10" t="s">
+      <c r="C21" s="4">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="5">
+        <v>1</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="E20" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="5">
-        <v>2</v>
-      </c>
-      <c r="B21" s="10" t="s">
+      <c r="C24" s="4">
+        <v>4</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2</v>
+      </c>
+      <c r="E24" s="9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E26" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="5">
+        <v>2</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="10" t="s">
+      <c r="C27" s="4">
+        <v>2</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2</v>
+      </c>
+      <c r="E27" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="10" t="s">
+      <c r="E28" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="10" t="s">
+      <c r="C29" s="4">
+        <v>2</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="10" t="s">
+      <c r="C30" s="4">
+        <v>3</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="4">
+        <v>2</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="4">
+        <v>3</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="5" t="s">
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B34" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="4">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-      <c r="E26" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="E27" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="E28" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="E29" s="9" t="str">
+      <c r="C34" s="4">
+        <v>2</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E35" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E36" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E37" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
